--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_19_24.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_19_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1264933.250227221</v>
+        <v>1262232.600603913</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673421</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10859835.14017781</v>
+        <v>10859835.1401778</v>
       </c>
     </row>
     <row r="11">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>110.096520216718</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -671,13 +671,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>263.7138800015061</v>
+        <v>12.83417464571001</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="I2" t="n">
-        <v>115.3066195468971</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,19 +707,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>72.3669840419067</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="W2" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -735,19 +735,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>71.96198415669194</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -756,7 +756,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>43.9218040015056</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>18.15252495527767</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -792,16 +792,16 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>26.95228090977709</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -820,25 +820,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>34.52670189341637</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.8836670385466</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>54.91465333918106</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>122.1505735248085</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888209</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -865,13 +865,13 @@
         <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T4" t="n">
-        <v>223.2143458795659</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>288.5102079953232</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -905,16 +905,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>383.0198440937146</v>
       </c>
       <c r="G5" t="n">
-        <v>12.42130226825859</v>
+        <v>12.42130226825858</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>99.3893572152011</v>
+        <v>99.38935721520079</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>143.3593638980479</v>
+        <v>143.3593638980478</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>210.4823667709296</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1151380880864</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>220.5112589753922</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>383.0198440937124</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -975,13 +975,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>115.013756753625</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -990,10 +990,10 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>97.34583147339774</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>36.31604239259341</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1023,22 +1023,22 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>143.0466996907029</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>193.950580588878</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8399542011172</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>73.77881286354749</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -1054,13 +1054,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1069,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>150.735559994784</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,25 +1099,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>119.1773223714493</v>
+        <v>119.1773223714492</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>201.4916274983621</v>
       </c>
       <c r="T7" t="n">
-        <v>222.4230353577824</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2485286662292</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>207.1722518073688</v>
       </c>
       <c r="W7" t="n">
-        <v>283.1161609289703</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1142,7 +1142,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>411.547702772954</v>
@@ -1151,7 +1151,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,13 +1181,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>26.43992985720323</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1196,10 +1196,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>2.739389635060288</v>
       </c>
     </row>
     <row r="9">
@@ -1288,13 +1288,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1303,13 +1303,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>39.29484974606676</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,22 +1336,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>158.8647187371884</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1370,25 +1370,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>302.3068012865779</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>410.4296912136494</v>
       </c>
       <c r="H11" t="n">
-        <v>289.5687166806772</v>
+        <v>289.5687166806773</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>22.60777203238047</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>97.97552699114112</v>
       </c>
       <c r="T11" t="n">
         <v>201.7640893793779</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.9558092037176</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1436,7 +1436,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>358.6087856860847</v>
       </c>
     </row>
     <row r="12">
@@ -1464,10 +1464,10 @@
         <v>134.7362075312412</v>
       </c>
       <c r="H12" t="n">
-        <v>87.05432226458123</v>
+        <v>87.05432226458127</v>
       </c>
       <c r="I12" t="n">
-        <v>9.753166794035153</v>
+        <v>9.753166794035309</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1497,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>123.2535382468619</v>
+        <v>123.253538246862</v>
       </c>
       <c r="T12" t="n">
         <v>189.655441187015</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>124.100452100949</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.8050985482227</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>89.71507747034032</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>79.00824149146331</v>
+        <v>79.00824149146349</v>
       </c>
       <c r="S13" t="n">
-        <v>185.9226570076761</v>
+        <v>185.9226570076762</v>
       </c>
       <c r="T13" t="n">
         <v>218.6059168754546</v>
@@ -1585,16 +1585,16 @@
         <v>286.1997994941144</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>137.126903542947</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1613,13 +1613,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>331.6388439349685</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8432760127576</v>
+        <v>359.551749875468</v>
       </c>
       <c r="H14" t="n">
         <v>283.5630920045443</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>84.61259060081966</v>
+        <v>84.61259060081962</v>
       </c>
       <c r="T14" t="n">
         <v>199.1970568374742</v>
@@ -1701,7 +1701,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H15" t="n">
-        <v>84.02406320561457</v>
+        <v>84.02406320561455</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1771,13 +1771,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5420528771669</v>
+        <v>81.37259901119296</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S16" t="n">
-        <v>52.32675559600485</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T16" t="n">
         <v>217.4819944627618</v>
@@ -1892,19 +1892,19 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881304</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717414</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -1999,25 +1999,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>167.2468210986218</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>99.97427419834409</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2062,7 +2062,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>200.554775911264</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2087,7 +2087,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2096,7 +2096,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444135</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2242,19 +2242,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>83.06560892428134</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,16 +2284,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>186.9166231085225</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2378,7 +2378,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.2409687174132</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2473,25 +2473,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2536,10 +2536,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>263.7048265736543</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>13.72582864853715</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634814</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2615,7 +2615,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.2409687174136</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2716,13 +2716,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>83.06560892428523</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2731,7 +2731,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>73.98898794535468</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272851</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2792,7 +2792,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710084</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2852,7 +2852,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.2409687174139</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2956,16 +2956,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>99.97427419834158</v>
       </c>
       <c r="F31" t="n">
-        <v>41.55695577161578</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462205</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671011826</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3029,7 +3029,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710094</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187879</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3193,19 +3193,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922613</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>99.97427419834398</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3241,10 +3241,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>245.0724546540149</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634814</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3317,7 +3317,7 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3424,22 +3424,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>140.2695301648964</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>103.1686991936199</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3481,7 +3481,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3490,7 +3490,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3509,7 +3509,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722627</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3670,10 +3670,10 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>99.97427419833875</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3715,7 +3715,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>141.5888089825041</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3901,16 +3901,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833829</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>23.10998325717225</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3980,7 +3980,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206834</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>103.1686991936194</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>35.03063761899546</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4195,7 +4195,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4304,43 +4304,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>522.1002068716687</v>
+        <v>307.3840804899464</v>
       </c>
       <c r="C2" t="n">
-        <v>410.8916005921556</v>
+        <v>307.3840804899464</v>
       </c>
       <c r="D2" t="n">
-        <v>410.8916005921556</v>
+        <v>307.3840804899464</v>
       </c>
       <c r="E2" t="n">
-        <v>410.8916005921556</v>
+        <v>307.3840804899464</v>
       </c>
       <c r="F2" t="n">
-        <v>403.9460998429521</v>
+        <v>300.4385797407429</v>
       </c>
       <c r="G2" t="n">
-        <v>137.5684432757741</v>
+        <v>287.4747669672985</v>
       </c>
       <c r="H2" t="n">
-        <v>137.5684432757741</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I2" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917579</v>
+        <v>49.28269087917556</v>
       </c>
       <c r="K2" t="n">
-        <v>142.2640879052547</v>
+        <v>142.264087905254</v>
       </c>
       <c r="L2" t="n">
-        <v>294.5174947515909</v>
+        <v>294.5174947515906</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030606</v>
+        <v>495.5981834030605</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991318</v>
+        <v>704.5463761991317</v>
       </c>
       <c r="O2" t="n">
         <v>888.5149683358416</v>
@@ -4355,25 +4355,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S2" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946892</v>
       </c>
       <c r="T2" t="n">
-        <v>1054.855520006025</v>
+        <v>827.4467551159955</v>
       </c>
       <c r="U2" t="n">
-        <v>1054.855520006025</v>
+        <v>573.7617370571244</v>
       </c>
       <c r="V2" t="n">
-        <v>1054.855520006025</v>
+        <v>307.3840804899464</v>
       </c>
       <c r="W2" t="n">
-        <v>788.4778634388466</v>
+        <v>307.3840804899464</v>
       </c>
       <c r="X2" t="n">
-        <v>788.4778634388466</v>
+        <v>307.3840804899464</v>
       </c>
       <c r="Y2" t="n">
-        <v>788.4778634388466</v>
+        <v>307.3840804899464</v>
       </c>
     </row>
     <row r="3">
@@ -4383,46 +4383,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>592.8578645128691</v>
+        <v>170.0315200613718</v>
       </c>
       <c r="C3" t="n">
-        <v>520.1689916273217</v>
+        <v>170.0315200613718</v>
       </c>
       <c r="D3" t="n">
-        <v>371.2345819660704</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="E3" t="n">
-        <v>211.9971269606149</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="F3" t="n">
-        <v>65.46256898749988</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="G3" t="n">
-        <v>65.46256898749988</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H3" t="n">
-        <v>65.46256898749988</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I3" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J3" t="n">
-        <v>117.4455628004801</v>
+        <v>46.96951069551291</v>
       </c>
       <c r="K3" t="n">
-        <v>192.1295835699343</v>
+        <v>121.6535314649671</v>
       </c>
       <c r="L3" t="n">
-        <v>338.874007230231</v>
+        <v>268.3979551252638</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4746963267547</v>
+        <v>529.474696326755</v>
       </c>
       <c r="N3" t="n">
-        <v>739.5286634293598</v>
+        <v>739.52866342936</v>
       </c>
       <c r="O3" t="n">
-        <v>909.4672107560896</v>
+        <v>909.4672107560898</v>
       </c>
       <c r="P3" t="n">
         <v>1026.524810789493</v>
@@ -4431,28 +4431,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R3" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="S3" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="T3" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="U3" t="n">
-        <v>1054.855520006025</v>
+        <v>808.3837902496284</v>
       </c>
       <c r="V3" t="n">
-        <v>1054.855520006025</v>
+        <v>573.2316820178858</v>
       </c>
       <c r="W3" t="n">
-        <v>800.618163277823</v>
+        <v>573.2316820178858</v>
       </c>
       <c r="X3" t="n">
-        <v>800.618163277823</v>
+        <v>546.0071558463937</v>
       </c>
       <c r="Y3" t="n">
-        <v>592.8578645128691</v>
+        <v>338.2468570814398</v>
       </c>
     </row>
     <row r="4">
@@ -4462,46 +4462,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>700.5939555987218</v>
+        <v>224.9087497860237</v>
       </c>
       <c r="C4" t="n">
-        <v>531.6577726708149</v>
+        <v>55.97256685811683</v>
       </c>
       <c r="D4" t="n">
-        <v>531.6577726708149</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="E4" t="n">
-        <v>383.7446790884218</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="F4" t="n">
-        <v>383.7446790884218</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="G4" t="n">
-        <v>215.1753184434252</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H4" t="n">
-        <v>159.7059716361716</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I4" t="n">
-        <v>36.32155393434483</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J4" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K4" t="n">
-        <v>126.4133765287949</v>
+        <v>126.4133765287947</v>
       </c>
       <c r="L4" t="n">
-        <v>316.708372655101</v>
+        <v>316.7083726551009</v>
       </c>
       <c r="M4" t="n">
         <v>527.7368878375337</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227046</v>
+        <v>739.1822330227048</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075543</v>
+        <v>918.4699372075545</v>
       </c>
       <c r="P4" t="n">
         <v>1048.360858816803</v>
@@ -4510,28 +4510,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R4" t="n">
-        <v>926.0629918407075</v>
+        <v>926.0629918407077</v>
       </c>
       <c r="S4" t="n">
-        <v>926.0629918407075</v>
+        <v>719.2759572512191</v>
       </c>
       <c r="T4" t="n">
-        <v>700.5939555987218</v>
+        <v>719.2759572512191</v>
       </c>
       <c r="U4" t="n">
-        <v>700.5939555987218</v>
+        <v>452.8983006840411</v>
       </c>
       <c r="V4" t="n">
-        <v>700.5939555987218</v>
+        <v>452.8983006840411</v>
       </c>
       <c r="W4" t="n">
-        <v>700.5939555987218</v>
+        <v>452.8983006840411</v>
       </c>
       <c r="X4" t="n">
-        <v>700.5939555987218</v>
+        <v>224.9087497860237</v>
       </c>
       <c r="Y4" t="n">
-        <v>700.5939555987218</v>
+        <v>224.9087497860237</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>150.5271483610032</v>
+        <v>530.4703790195921</v>
       </c>
       <c r="C5" t="n">
-        <v>150.5271483610032</v>
+        <v>530.4703790195921</v>
       </c>
       <c r="D5" t="n">
-        <v>150.5271483610032</v>
+        <v>530.4703790195921</v>
       </c>
       <c r="E5" t="n">
-        <v>150.5271483610032</v>
+        <v>530.4703790195921</v>
       </c>
       <c r="F5" t="n">
-        <v>143.5816476117997</v>
+        <v>143.5816476117996</v>
       </c>
       <c r="G5" t="n">
-        <v>131.0348776438618</v>
+        <v>131.0348776438616</v>
       </c>
       <c r="H5" t="n">
-        <v>131.0348776438618</v>
+        <v>131.0348776438616</v>
       </c>
       <c r="I5" t="n">
-        <v>30.64158752749699</v>
+        <v>30.64158752749717</v>
       </c>
       <c r="J5" t="n">
-        <v>93.51877468281293</v>
+        <v>93.5187746828135</v>
       </c>
       <c r="K5" t="n">
-        <v>238.4938972452953</v>
+        <v>238.4938972452969</v>
       </c>
       <c r="L5" t="n">
-        <v>455.2501182192506</v>
+        <v>455.2501182192535</v>
       </c>
       <c r="M5" t="n">
-        <v>728.1026159494161</v>
+        <v>728.1026159494203</v>
       </c>
       <c r="N5" t="n">
-        <v>1009.983960730193</v>
+        <v>1009.983960730198</v>
       </c>
       <c r="O5" t="n">
-        <v>1262.821260145357</v>
+        <v>1262.821260145364</v>
       </c>
       <c r="P5" t="n">
-        <v>1444.111044739586</v>
+        <v>1444.111044739593</v>
       </c>
       <c r="Q5" t="n">
-        <v>1532.07937637485</v>
+        <v>1532.079376374858</v>
       </c>
       <c r="R5" t="n">
-        <v>1532.07937637485</v>
+        <v>1532.079376374858</v>
       </c>
       <c r="S5" t="n">
-        <v>1387.271938093993</v>
+        <v>1387.271938094002</v>
       </c>
       <c r="T5" t="n">
-        <v>1387.271938093993</v>
+        <v>1174.663486810235</v>
       </c>
       <c r="U5" t="n">
-        <v>1133.620283459562</v>
+        <v>1174.663486810235</v>
       </c>
       <c r="V5" t="n">
-        <v>910.8816380298733</v>
+        <v>1174.663486810235</v>
       </c>
       <c r="W5" t="n">
-        <v>910.8816380298733</v>
+        <v>821.8948315401205</v>
       </c>
       <c r="X5" t="n">
-        <v>537.4158797687935</v>
+        <v>821.8948315401205</v>
       </c>
       <c r="Y5" t="n">
-        <v>150.5271483610032</v>
+        <v>821.8948315401205</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>277.90511988915</v>
+        <v>517.1904547900579</v>
       </c>
       <c r="C6" t="n">
-        <v>277.90511988915</v>
+        <v>342.7374255089309</v>
       </c>
       <c r="D6" t="n">
-        <v>128.9707102278987</v>
+        <v>226.5619136365824</v>
       </c>
       <c r="E6" t="n">
-        <v>128.9707102278987</v>
+        <v>67.32445863112687</v>
       </c>
       <c r="F6" t="n">
-        <v>128.9707102278987</v>
+        <v>67.32445863112687</v>
       </c>
       <c r="G6" t="n">
-        <v>128.9707102278987</v>
+        <v>67.32445863112687</v>
       </c>
       <c r="H6" t="n">
-        <v>30.64158752749699</v>
+        <v>67.32445863112687</v>
       </c>
       <c r="I6" t="n">
-        <v>30.64158752749699</v>
+        <v>30.64158752749717</v>
       </c>
       <c r="J6" t="n">
-        <v>49.27296248835555</v>
+        <v>49.27296248835609</v>
       </c>
       <c r="K6" t="n">
-        <v>159.2717745831296</v>
+        <v>159.2717745831309</v>
       </c>
       <c r="L6" t="n">
-        <v>353.5012932962542</v>
+        <v>448.9177571045004</v>
       </c>
       <c r="M6" t="n">
-        <v>715.8512040886825</v>
+        <v>828.1074027572779</v>
       </c>
       <c r="N6" t="n">
-        <v>1095.040849741458</v>
+        <v>1095.040849741464</v>
       </c>
       <c r="O6" t="n">
-        <v>1317.013008851457</v>
+        <v>1317.013008851465</v>
       </c>
       <c r="P6" t="n">
-        <v>1475.832169705182</v>
+        <v>1475.83216970519</v>
       </c>
       <c r="Q6" t="n">
-        <v>1532.07937637485</v>
+        <v>1532.079376374858</v>
       </c>
       <c r="R6" t="n">
-        <v>1532.07937637485</v>
+        <v>1532.079376374858</v>
       </c>
       <c r="S6" t="n">
-        <v>1387.587760525655</v>
+        <v>1532.079376374858</v>
       </c>
       <c r="T6" t="n">
-        <v>1191.678083163152</v>
+        <v>1336.169699012355</v>
       </c>
       <c r="U6" t="n">
-        <v>963.5569173034374</v>
+        <v>1336.169699012355</v>
       </c>
       <c r="V6" t="n">
-        <v>728.4048090716947</v>
+        <v>1101.017590780613</v>
       </c>
       <c r="W6" t="n">
-        <v>653.880755674172</v>
+        <v>1101.017590780613</v>
       </c>
       <c r="X6" t="n">
-        <v>653.880755674172</v>
+        <v>893.1660905750798</v>
       </c>
       <c r="Y6" t="n">
-        <v>446.120456909218</v>
+        <v>685.4057918101259</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>347.490864037797</v>
+        <v>182.8997289363699</v>
       </c>
       <c r="C7" t="n">
-        <v>178.5546811098901</v>
+        <v>182.8997289363699</v>
       </c>
       <c r="D7" t="n">
-        <v>178.5546811098901</v>
+        <v>182.8997289363699</v>
       </c>
       <c r="E7" t="n">
-        <v>30.64158752749699</v>
+        <v>182.8997289363699</v>
       </c>
       <c r="F7" t="n">
-        <v>30.64158752749699</v>
+        <v>182.8997289363699</v>
       </c>
       <c r="G7" t="n">
-        <v>30.64158752749699</v>
+        <v>182.8997289363699</v>
       </c>
       <c r="H7" t="n">
-        <v>30.64158752749699</v>
+        <v>30.64158752749717</v>
       </c>
       <c r="I7" t="n">
-        <v>30.64158752749699</v>
+        <v>30.64158752749717</v>
       </c>
       <c r="J7" t="n">
-        <v>30.64158752749699</v>
+        <v>30.64158752749717</v>
       </c>
       <c r="K7" t="n">
-        <v>157.2595961746997</v>
+        <v>157.2595961747002</v>
       </c>
       <c r="L7" t="n">
-        <v>374.8134887914608</v>
+        <v>374.8134887914619</v>
       </c>
       <c r="M7" t="n">
-        <v>614.5826883437672</v>
+        <v>614.5826883437688</v>
       </c>
       <c r="N7" t="n">
-        <v>854.0853286630845</v>
+        <v>854.0853286630867</v>
       </c>
       <c r="O7" t="n">
-        <v>1059.28848610913</v>
+        <v>1059.288486109132</v>
       </c>
       <c r="P7" t="n">
-        <v>1211.354555016227</v>
+        <v>1211.35455501623</v>
       </c>
       <c r="Q7" t="n">
-        <v>1233.20213876712</v>
+        <v>1233.202138767124</v>
       </c>
       <c r="R7" t="n">
-        <v>1112.821005058586</v>
+        <v>1112.821005058589</v>
       </c>
       <c r="S7" t="n">
-        <v>1112.821005058586</v>
+        <v>909.2941085955974</v>
       </c>
       <c r="T7" t="n">
-        <v>888.1512723739569</v>
+        <v>909.2941085955974</v>
       </c>
       <c r="U7" t="n">
-        <v>888.1512723739569</v>
+        <v>620.1541806499113</v>
       </c>
       <c r="V7" t="n">
-        <v>633.46678416807</v>
+        <v>410.8892798343873</v>
       </c>
       <c r="W7" t="n">
-        <v>347.490864037797</v>
+        <v>410.8892798343873</v>
       </c>
       <c r="X7" t="n">
-        <v>347.490864037797</v>
+        <v>182.8997289363699</v>
       </c>
       <c r="Y7" t="n">
-        <v>347.490864037797</v>
+        <v>182.8997289363699</v>
       </c>
     </row>
     <row r="8">
@@ -4778,49 +4778,49 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1936.747355174407</v>
+        <v>1599.080600298115</v>
       </c>
       <c r="C8" t="n">
-        <v>1567.784838233996</v>
+        <v>1230.118083357703</v>
       </c>
       <c r="D8" t="n">
-        <v>1567.784838233996</v>
+        <v>1230.118083357703</v>
       </c>
       <c r="E8" t="n">
-        <v>1181.996585635751</v>
+        <v>844.329830759459</v>
       </c>
       <c r="F8" t="n">
-        <v>771.0106808461439</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G8" t="n">
-        <v>355.3059305704328</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H8" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362818</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L8" t="n">
-        <v>795.755353087291</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230816</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.228484740839</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q8" t="n">
         <v>2542.25058172385</v>
@@ -4829,25 +4829,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2535.632328544395</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T8" t="n">
-        <v>2326.886687150219</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U8" t="n">
-        <v>2326.886687150219</v>
+        <v>1975.313418796629</v>
       </c>
       <c r="V8" t="n">
-        <v>2326.886687150219</v>
+        <v>1975.313418796629</v>
       </c>
       <c r="W8" t="n">
-        <v>2326.886687150219</v>
+        <v>1975.313418796629</v>
       </c>
       <c r="X8" t="n">
-        <v>2326.886687150219</v>
+        <v>1601.847660535549</v>
       </c>
       <c r="Y8" t="n">
-        <v>1936.747355174407</v>
+        <v>1599.080600298115</v>
       </c>
     </row>
     <row r="9">
@@ -4857,49 +4857,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E9" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4432786182521</v>
+        <v>165.4432786182518</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057906</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500113</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>319.2880102945317</v>
+        <v>423.148951518066</v>
       </c>
       <c r="L9" t="n">
-        <v>613.9915673260033</v>
+        <v>884.9085321458213</v>
       </c>
       <c r="M9" t="n">
-        <v>1248.170551105042</v>
+        <v>1248.170551105041</v>
       </c>
       <c r="N9" t="n">
         <v>1635.455679701987</v>
       </c>
       <c r="O9" t="n">
-        <v>1967.526114878149</v>
+        <v>1967.526114878148</v>
       </c>
       <c r="P9" t="n">
-        <v>2214.708848710446</v>
+        <v>2214.708848710445</v>
       </c>
       <c r="Q9" t="n">
         <v>2538.001278676482</v>
@@ -4914,16 +4914,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>643.5623317901019</v>
+        <v>199.1598801503962</v>
       </c>
       <c r="C10" t="n">
-        <v>643.5623317901019</v>
+        <v>199.1598801503962</v>
       </c>
       <c r="D10" t="n">
-        <v>493.4456923777661</v>
+        <v>199.1598801503962</v>
       </c>
       <c r="E10" t="n">
-        <v>345.532598795373</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="F10" t="n">
-        <v>345.532598795373</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G10" t="n">
-        <v>305.8408313751036</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H10" t="n">
-        <v>157.1019332386098</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K10" t="n">
         <v>248.4064713020475</v>
@@ -4984,28 +4984,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="T10" t="n">
-        <v>1636.446120074497</v>
+        <v>1373.393300724232</v>
       </c>
       <c r="U10" t="n">
-        <v>1636.446120074497</v>
+        <v>1084.27496322807</v>
       </c>
       <c r="V10" t="n">
-        <v>1381.76163186861</v>
+        <v>829.5904750221833</v>
       </c>
       <c r="W10" t="n">
-        <v>1092.344461831649</v>
+        <v>829.5904750221833</v>
       </c>
       <c r="X10" t="n">
-        <v>864.354910933632</v>
+        <v>601.600924124166</v>
       </c>
       <c r="Y10" t="n">
-        <v>643.5623317901019</v>
+        <v>380.8083449806359</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1887.714727835679</v>
+        <v>1563.167068012547</v>
       </c>
       <c r="C11" t="n">
-        <v>1887.714727835679</v>
+        <v>1194.204551072135</v>
       </c>
       <c r="D11" t="n">
-        <v>1582.354322495702</v>
+        <v>1194.204551072135</v>
       </c>
       <c r="E11" t="n">
-        <v>1196.566069897458</v>
+        <v>808.4162984738909</v>
       </c>
       <c r="F11" t="n">
-        <v>785.58016510785</v>
+        <v>808.4162984738909</v>
       </c>
       <c r="G11" t="n">
-        <v>371.0047194374972</v>
+        <v>393.840852803538</v>
       </c>
       <c r="H11" t="n">
-        <v>78.51106622469194</v>
+        <v>101.3471995907326</v>
       </c>
       <c r="I11" t="n">
-        <v>78.51106622469194</v>
+        <v>78.51106622469172</v>
       </c>
       <c r="J11" t="n">
-        <v>308.7333971386843</v>
+        <v>308.7333971386824</v>
       </c>
       <c r="K11" t="n">
-        <v>704.5155104420337</v>
+        <v>704.5155104420305</v>
       </c>
       <c r="L11" t="n">
-        <v>1232.419981301228</v>
+        <v>1232.419981301222</v>
       </c>
       <c r="M11" t="n">
-        <v>1851.484858878113</v>
+        <v>1851.484858878106</v>
       </c>
       <c r="N11" t="n">
-        <v>2485.180661765429</v>
+        <v>2485.180661765421</v>
       </c>
       <c r="O11" t="n">
-        <v>3070.226377687106</v>
+        <v>3070.226377687097</v>
       </c>
       <c r="P11" t="n">
-        <v>3535.048359856289</v>
+        <v>3535.048359856279</v>
       </c>
       <c r="Q11" t="n">
-        <v>3835.937563882247</v>
+        <v>3835.937563882237</v>
       </c>
       <c r="R11" t="n">
-        <v>3925.553311234597</v>
+        <v>3925.553311234586</v>
       </c>
       <c r="S11" t="n">
-        <v>3925.553311234597</v>
+        <v>3826.588132455655</v>
       </c>
       <c r="T11" t="n">
-        <v>3721.751200750377</v>
+        <v>3622.786021971435</v>
       </c>
       <c r="U11" t="n">
-        <v>3721.751200750377</v>
+        <v>3369.295305604044</v>
       </c>
       <c r="V11" t="n">
-        <v>3390.688313406807</v>
+        <v>3038.232418260473</v>
       </c>
       <c r="W11" t="n">
-        <v>3037.919658136692</v>
+        <v>2685.463762990359</v>
       </c>
       <c r="X11" t="n">
-        <v>2664.453899875612</v>
+        <v>2311.998004729279</v>
       </c>
       <c r="Y11" t="n">
-        <v>2274.314567899801</v>
+        <v>1949.766908076669</v>
       </c>
     </row>
     <row r="12">
@@ -5103,7 +5103,7 @@
         <v>618.1656010111994</v>
       </c>
       <c r="E12" t="n">
-        <v>458.928146005744</v>
+        <v>458.9281460057439</v>
       </c>
       <c r="F12" t="n">
         <v>312.3935880326289</v>
@@ -5112,34 +5112,34 @@
         <v>176.2964087081428</v>
       </c>
       <c r="H12" t="n">
-        <v>88.36274985503049</v>
+        <v>88.36274985503042</v>
       </c>
       <c r="I12" t="n">
-        <v>78.51106622469194</v>
+        <v>78.51106622469172</v>
       </c>
       <c r="J12" t="n">
-        <v>78.51106622469194</v>
+        <v>196.8120623792125</v>
       </c>
       <c r="K12" t="n">
-        <v>358.8611360831297</v>
+        <v>477.1621322376495</v>
       </c>
       <c r="L12" t="n">
-        <v>782.1489435104399</v>
+        <v>900.4499396649586</v>
       </c>
       <c r="M12" t="n">
-        <v>1295.46271775433</v>
+        <v>1413.763713908847</v>
       </c>
       <c r="N12" t="n">
-        <v>1836.771025105397</v>
+        <v>1518.698809735876</v>
       </c>
       <c r="O12" t="n">
-        <v>2198.621366333045</v>
+        <v>1991.670362601624</v>
       </c>
       <c r="P12" t="n">
-        <v>2558.889669173201</v>
+        <v>2351.938665441778</v>
       </c>
       <c r="Q12" t="n">
-        <v>2558.889669173201</v>
+        <v>2542.849288629729</v>
       </c>
       <c r="R12" t="n">
         <v>2558.889669173201</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>950.4681175427764</v>
+        <v>203.8650582458523</v>
       </c>
       <c r="C13" t="n">
-        <v>781.5319346148696</v>
+        <v>78.51106622469172</v>
       </c>
       <c r="D13" t="n">
-        <v>631.4152952025338</v>
+        <v>78.51106622469172</v>
       </c>
       <c r="E13" t="n">
-        <v>483.5022016201407</v>
+        <v>78.51106622469172</v>
       </c>
       <c r="F13" t="n">
-        <v>336.6122541222303</v>
+        <v>78.51106622469172</v>
       </c>
       <c r="G13" t="n">
-        <v>169.1323565987731</v>
+        <v>78.51106622469172</v>
       </c>
       <c r="H13" t="n">
-        <v>169.1323565987731</v>
+        <v>78.51106622469172</v>
       </c>
       <c r="I13" t="n">
-        <v>78.51106622469194</v>
+        <v>78.51106622469172</v>
       </c>
       <c r="J13" t="n">
-        <v>139.0818334600402</v>
+        <v>139.0818334600397</v>
       </c>
       <c r="K13" t="n">
-        <v>368.4550473457709</v>
+        <v>368.4550473457698</v>
       </c>
       <c r="L13" t="n">
-        <v>717.5002252888925</v>
+        <v>717.5002252888908</v>
       </c>
       <c r="M13" t="n">
-        <v>1095.908548779222</v>
+        <v>1095.90854877922</v>
       </c>
       <c r="N13" t="n">
-        <v>1470.753784542995</v>
+        <v>1470.753784542992</v>
       </c>
       <c r="O13" t="n">
-        <v>1800.96773471585</v>
+        <v>1800.967734715847</v>
       </c>
       <c r="P13" t="n">
-        <v>2060.002133082523</v>
+        <v>2060.002133082519</v>
       </c>
       <c r="Q13" t="n">
-        <v>2155.909043551107</v>
+        <v>2155.909043551103</v>
       </c>
       <c r="R13" t="n">
-        <v>2076.102739014275</v>
+        <v>2076.102739014271</v>
       </c>
       <c r="S13" t="n">
-        <v>1888.302075370158</v>
+        <v>1888.302075370153</v>
       </c>
       <c r="T13" t="n">
-        <v>1667.488017920203</v>
+        <v>1667.488017920199</v>
       </c>
       <c r="U13" t="n">
-        <v>1378.397311360492</v>
+        <v>1378.397311360487</v>
       </c>
       <c r="V13" t="n">
-        <v>1378.397311360492</v>
+        <v>1123.7128231546</v>
       </c>
       <c r="W13" t="n">
-        <v>1088.980141323531</v>
+        <v>834.2956531176394</v>
       </c>
       <c r="X13" t="n">
-        <v>950.4681175427764</v>
+        <v>606.3061022196221</v>
       </c>
       <c r="Y13" t="n">
-        <v>950.4681175427764</v>
+        <v>385.5135230760919</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2266.424947555042</v>
+        <v>2266.424947555046</v>
       </c>
       <c r="C14" t="n">
-        <v>1897.462430614631</v>
+        <v>1897.462430614635</v>
       </c>
       <c r="D14" t="n">
-        <v>1539.196732007881</v>
+        <v>1539.196732007884</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.208000760437</v>
+        <v>1153.40847940964</v>
       </c>
       <c r="F14" t="n">
-        <v>793.22209597083</v>
+        <v>742.4225746200325</v>
       </c>
       <c r="G14" t="n">
         <v>379.2389888872364</v>
       </c>
       <c r="H14" t="n">
-        <v>92.81162322608048</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I14" t="n">
-        <v>92.81162322608048</v>
+        <v>92.81162322608057</v>
       </c>
       <c r="J14" t="n">
-        <v>372.3074987251932</v>
+        <v>372.3074987251935</v>
       </c>
       <c r="K14" t="n">
-        <v>841.9378825128749</v>
+        <v>841.9378825128756</v>
       </c>
       <c r="L14" t="n">
         <v>1461.45766301865</v>
       </c>
       <c r="M14" t="n">
-        <v>2182.462224957687</v>
+        <v>2182.462224957688</v>
       </c>
       <c r="N14" t="n">
-        <v>2919.747202874793</v>
+        <v>2919.747202874794</v>
       </c>
       <c r="O14" t="n">
-        <v>3602.609239333931</v>
+        <v>3602.609239333933</v>
       </c>
       <c r="P14" t="n">
-        <v>4150.915188021279</v>
+        <v>4150.915188021282</v>
       </c>
       <c r="Q14" t="n">
-        <v>4514.497374127286</v>
+        <v>4514.49737412729</v>
       </c>
       <c r="R14" t="n">
-        <v>4640.581161304024</v>
+        <v>4640.581161304028</v>
       </c>
       <c r="S14" t="n">
-        <v>4555.113898070873</v>
+        <v>4555.113898070877</v>
       </c>
       <c r="T14" t="n">
-        <v>4353.904749750192</v>
+        <v>4353.904749750195</v>
       </c>
       <c r="U14" t="n">
-        <v>4100.461420469741</v>
+        <v>4100.461420469745</v>
       </c>
       <c r="V14" t="n">
-        <v>3769.39853312617</v>
+        <v>3769.398533126174</v>
       </c>
       <c r="W14" t="n">
-        <v>3416.629877856056</v>
+        <v>3416.629877856059</v>
       </c>
       <c r="X14" t="n">
-        <v>3043.164119594976</v>
+        <v>3043.16411959498</v>
       </c>
       <c r="Y14" t="n">
-        <v>2653.024787619164</v>
+        <v>2653.024787619168</v>
       </c>
     </row>
     <row r="15">
@@ -5343,31 +5343,31 @@
         <v>459.9992225560484</v>
       </c>
       <c r="F15" t="n">
-        <v>313.4646645829333</v>
+        <v>313.4646645829334</v>
       </c>
       <c r="G15" t="n">
         <v>177.6844143428629</v>
       </c>
       <c r="H15" t="n">
-        <v>92.81162322608048</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I15" t="n">
-        <v>93.85065580060304</v>
+        <v>93.85065580060315</v>
       </c>
       <c r="J15" t="n">
-        <v>93.85065580060304</v>
+        <v>93.85065580060315</v>
       </c>
       <c r="K15" t="n">
-        <v>93.85065580060304</v>
+        <v>424.3593983639619</v>
       </c>
       <c r="L15" t="n">
-        <v>106.3138404733493</v>
+        <v>915.0917312077133</v>
       </c>
       <c r="M15" t="n">
-        <v>698.3321947254768</v>
+        <v>1507.110085459841</v>
       </c>
       <c r="N15" t="n">
-        <v>1320.428158124813</v>
+        <v>1507.110085459841</v>
       </c>
       <c r="O15" t="n">
         <v>1867.304633125007</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>873.8816814720477</v>
+        <v>494.0589900220737</v>
       </c>
       <c r="C16" t="n">
-        <v>704.9454985441408</v>
+        <v>325.1228070941668</v>
       </c>
       <c r="D16" t="n">
-        <v>554.8288591318051</v>
+        <v>175.0061676818311</v>
       </c>
       <c r="E16" t="n">
-        <v>406.9157655494118</v>
+        <v>175.0061676818311</v>
       </c>
       <c r="F16" t="n">
-        <v>260.0258180515016</v>
+        <v>175.0061676818311</v>
       </c>
       <c r="G16" t="n">
-        <v>92.81162322608048</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="H16" t="n">
-        <v>92.81162322608048</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I16" t="n">
-        <v>92.81162322608048</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="J16" t="n">
-        <v>171.7937461156343</v>
+        <v>171.7937461156345</v>
       </c>
       <c r="K16" t="n">
-        <v>431.4224730861979</v>
+        <v>431.4224730861982</v>
       </c>
       <c r="L16" t="n">
-        <v>819.184291169332</v>
+        <v>819.1842911693325</v>
       </c>
       <c r="M16" t="n">
-        <v>1238.413883213791</v>
+        <v>1238.413883213792</v>
       </c>
       <c r="N16" t="n">
-        <v>1653.109749005498</v>
+        <v>1653.109749005499</v>
       </c>
       <c r="O16" t="n">
         <v>2020.132206020528</v>
       </c>
       <c r="P16" t="n">
-        <v>2310.662640856732</v>
+        <v>2310.662640856733</v>
       </c>
       <c r="Q16" t="n">
-        <v>2428.375774410167</v>
+        <v>2428.375774410168</v>
       </c>
       <c r="R16" t="n">
-        <v>2428.375774410167</v>
+        <v>2360.516429368669</v>
       </c>
       <c r="S16" t="n">
-        <v>2375.520465727334</v>
+        <v>2177.3462391076</v>
       </c>
       <c r="T16" t="n">
-        <v>2155.841683441716</v>
+        <v>1957.667456821982</v>
       </c>
       <c r="U16" t="n">
-        <v>1866.765469756443</v>
+        <v>1668.591243136708</v>
       </c>
       <c r="V16" t="n">
-        <v>1612.080981550556</v>
+        <v>1413.906754930822</v>
       </c>
       <c r="W16" t="n">
-        <v>1322.663811513595</v>
+        <v>1124.489584893861</v>
       </c>
       <c r="X16" t="n">
-        <v>1094.674260615578</v>
+        <v>896.5000339958435</v>
       </c>
       <c r="Y16" t="n">
-        <v>873.8816814720477</v>
+        <v>675.7074548523134</v>
       </c>
     </row>
     <row r="17">
@@ -5504,22 +5504,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332389</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
         <v>2206.55866301478</v>
@@ -5537,19 +5537,19 @@
         <v>4562.265728852257</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T17" t="n">
         <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
         <v>3467.980956852888</v>
@@ -5586,31 +5586,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>95.5840502527391</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>139.234765840793</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>139.234765840793</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>634.560372056552</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1231.938859683104</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O18" t="n">
-        <v>2297.690135143765</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
         <v>2516.421633107662</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>849.3843576263199</v>
+        <v>513.853600740071</v>
       </c>
       <c r="C19" t="n">
-        <v>680.448174698413</v>
+        <v>344.9174178121704</v>
       </c>
       <c r="D19" t="n">
-        <v>530.3315352860773</v>
+        <v>194.8007783998347</v>
       </c>
       <c r="E19" t="n">
-        <v>382.4184417036842</v>
+        <v>194.8007783998347</v>
       </c>
       <c r="F19" t="n">
-        <v>235.5284942057738</v>
+        <v>194.8007783998347</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>194.8007783998347</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5677,13 +5677,13 @@
         <v>435.7419440038344</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797746</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
         <v>2035.089393279803</v>
@@ -5695,28 +5695,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1298.166487667867</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1070.17693676985</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y19" t="n">
-        <v>849.3843576263199</v>
+        <v>695.5020655703107</v>
       </c>
     </row>
     <row r="20">
@@ -5741,25 +5741,25 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362684</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
         <v>2950.898526355937</v>
@@ -5829,25 +5829,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
-        <v>2516.421633107662</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
         <v>2516.421633107662</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400708</v>
       </c>
       <c r="C22" t="n">
-        <v>847.6442739835331</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="D22" t="n">
-        <v>697.5276345711973</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E22" t="n">
-        <v>549.6145409888043</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5914,46 +5914,46 @@
         <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>2191.112710026075</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1936.428221820188</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1647.011051783227</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138406</v>
       </c>
       <c r="Y22" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703105</v>
       </c>
     </row>
     <row r="23">
@@ -5978,31 +5978,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6063,25 +6063,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438171</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>1802.364528928006</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P24" t="n">
         <v>2283.159972732779</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>718.550723916711</v>
+        <v>727.9786782557276</v>
       </c>
       <c r="C25" t="n">
-        <v>549.6145409888042</v>
+        <v>559.0424953278209</v>
       </c>
       <c r="D25" t="n">
-        <v>549.6145409888042</v>
+        <v>408.9258559154852</v>
       </c>
       <c r="E25" t="n">
-        <v>549.6145409888042</v>
+        <v>261.012762333092</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6145,7 +6145,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782954</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
         <v>435.7419440038341</v>
@@ -6169,7 +6169,7 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S25" t="n">
         <v>2197.062545487567</v>
@@ -6178,19 +6178,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854705</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648818</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1167.332853958259</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>939.3433030602412</v>
+        <v>1130.419722229497</v>
       </c>
       <c r="Y25" t="n">
-        <v>718.550723916711</v>
+        <v>909.6271430859673</v>
       </c>
     </row>
     <row r="26">
@@ -6221,19 +6221,19 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332389</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
         <v>2950.898526355938</v>
@@ -6242,16 +6242,16 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T26" t="n">
         <v>4405.252601474785</v>
@@ -6266,10 +6266,10 @@
         <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="27">
@@ -6303,25 +6303,25 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L27" t="n">
-        <v>738.7889117913853</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M27" t="n">
-        <v>1336.167399417937</v>
+        <v>1231.938859683104</v>
       </c>
       <c r="N27" t="n">
-        <v>1963.765362972544</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O27" t="n">
-        <v>2515.675093211831</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2515.675093211831</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
         <v>2516.421633107662</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>801.6918836311992</v>
+        <v>513.8536007400749</v>
       </c>
       <c r="C28" t="n">
-        <v>632.7557007032923</v>
+        <v>344.9174178121679</v>
       </c>
       <c r="D28" t="n">
-        <v>482.6390612909565</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E28" t="n">
-        <v>482.6390612909565</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F28" t="n">
-        <v>335.7491137930463</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>168.5530145079261</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H28" t="n">
-        <v>168.5530145079261</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797189</v>
@@ -6385,10 +6385,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6406,28 +6406,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258107</v>
+        <v>1977.461080510512</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.38585385471</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648823</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611862</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614389</v>
+        <v>916.2946447138447</v>
       </c>
       <c r="Y28" t="n">
-        <v>983.3403484614389</v>
+        <v>695.5020655703146</v>
       </c>
     </row>
     <row r="29">
@@ -6458,19 +6458,19 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
         <v>2950.898526355938</v>
@@ -6482,7 +6482,7 @@
         <v>4194.413870694709</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398594</v>
@@ -6500,10 +6500,10 @@
         <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6546,13 +6546,13 @@
         <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N30" t="n">
-        <v>1859.536823237711</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
         <v>1859.536823237711</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>763.7541388327652</v>
+        <v>513.8536007400746</v>
       </c>
       <c r="C31" t="n">
-        <v>594.8179559048583</v>
+        <v>344.9174178121678</v>
       </c>
       <c r="D31" t="n">
-        <v>444.7013164925226</v>
+        <v>194.8007783998321</v>
       </c>
       <c r="E31" t="n">
-        <v>444.7013164925226</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908905</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057704</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797189</v>
@@ -6622,10 +6622,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797741</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
@@ -6634,7 +6634,7 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
@@ -6643,28 +6643,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832666</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487571</v>
       </c>
       <c r="T31" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510512</v>
       </c>
       <c r="U31" t="n">
-        <v>1938.2863919474</v>
+        <v>1688.385853854709</v>
       </c>
       <c r="V31" t="n">
-        <v>1683.601903741513</v>
+        <v>1433.701365648823</v>
       </c>
       <c r="W31" t="n">
-        <v>1394.184733704552</v>
+        <v>1144.284195611862</v>
       </c>
       <c r="X31" t="n">
-        <v>1166.195182806535</v>
+        <v>916.2946447138445</v>
       </c>
       <c r="Y31" t="n">
-        <v>945.4026036630049</v>
+        <v>695.5020655703144</v>
       </c>
     </row>
     <row r="32">
@@ -6674,19 +6674,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551877</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6695,28 +6695,28 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
         <v>4562.265728852256</v>
@@ -6731,19 +6731,19 @@
         <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6780,16 +6780,16 @@
         <v>93.81666304797189</v>
       </c>
       <c r="K33" t="n">
-        <v>427.7414352191925</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="L33" t="n">
-        <v>427.7414352191925</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438171</v>
+        <v>691.1951506745238</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>1318.793114229131</v>
       </c>
       <c r="O33" t="n">
         <v>1859.536823237711</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>810.0653816078064</v>
+        <v>513.8536007400769</v>
       </c>
       <c r="C34" t="n">
-        <v>641.1291986798996</v>
+        <v>344.91741781217</v>
       </c>
       <c r="D34" t="n">
-        <v>491.0125592675638</v>
+        <v>194.8007783998343</v>
       </c>
       <c r="E34" t="n">
-        <v>343.0994656851707</v>
+        <v>194.8007783998343</v>
       </c>
       <c r="F34" t="n">
-        <v>343.0994656851707</v>
+        <v>194.8007783998345</v>
       </c>
       <c r="G34" t="n">
-        <v>175.9033664000583</v>
+        <v>194.8007783998345</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797189</v>
@@ -6862,7 +6862,7 @@
         <v>435.7419440038344</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797746</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
@@ -6871,37 +6871,37 @@
         <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279808</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853366</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580266</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832668</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487573</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510514</v>
       </c>
       <c r="U34" t="n">
-        <v>1977.461080510509</v>
+        <v>1688.385853854712</v>
       </c>
       <c r="V34" t="n">
-        <v>1729.913146516554</v>
+        <v>1433.701365648825</v>
       </c>
       <c r="W34" t="n">
-        <v>1440.495976479594</v>
+        <v>1144.284195611864</v>
       </c>
       <c r="X34" t="n">
-        <v>1212.506425581576</v>
+        <v>916.2946447138468</v>
       </c>
       <c r="Y34" t="n">
-        <v>991.7138464380462</v>
+        <v>695.5020655703166</v>
       </c>
     </row>
     <row r="35">
@@ -6938,13 +6938,13 @@
         <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
         <v>2950.898526355938</v>
@@ -6953,10 +6953,10 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398594</v>
@@ -6965,10 +6965,10 @@
         <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
         <v>3820.749612123003</v>
@@ -7017,25 +7017,25 @@
         <v>95.58405025273906</v>
       </c>
       <c r="K36" t="n">
-        <v>184.7035232280583</v>
+        <v>429.5088224239597</v>
       </c>
       <c r="L36" t="n">
-        <v>680.0291294438171</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438171</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2074.122646505557</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>989.3306680894884</v>
+        <v>513.8536007400719</v>
       </c>
       <c r="C37" t="n">
-        <v>847.6442739835331</v>
+        <v>344.917417812165</v>
       </c>
       <c r="D37" t="n">
-        <v>697.5276345711974</v>
+        <v>344.917417812165</v>
       </c>
       <c r="E37" t="n">
-        <v>549.6145409888043</v>
+        <v>344.917417812165</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>198.0274703142546</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7105,7 +7105,7 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
         <v>2035.089393279803</v>
@@ -7129,16 +7129,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1688.385853854706</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1398.968683817745</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>1170.979132919728</v>
+        <v>916.2946447138418</v>
       </c>
       <c r="Y37" t="n">
-        <v>1170.979132919728</v>
+        <v>695.5020655703116</v>
       </c>
     </row>
     <row r="38">
@@ -7151,31 +7151,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168615</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192497</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111706</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075799</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332386</v>
@@ -7187,34 +7187,34 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,25 +7245,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L39" t="n">
-        <v>579.1554649516144</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M39" t="n">
-        <v>1176.533952578166</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N39" t="n">
-        <v>1577.52840832642</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O39" t="n">
         <v>2129.438138565707</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>726.955532171245</v>
+        <v>513.8536007400718</v>
       </c>
       <c r="C40" t="n">
-        <v>558.0193492433381</v>
+        <v>344.9174178121649</v>
       </c>
       <c r="D40" t="n">
-        <v>407.9027098310023</v>
+        <v>194.8007783998292</v>
       </c>
       <c r="E40" t="n">
-        <v>407.9027098310023</v>
+        <v>194.8007783998292</v>
       </c>
       <c r="F40" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
@@ -7354,28 +7354,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258107</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1901.48778528588</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1646.803297079993</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1357.386127043032</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>1129.396576145015</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>908.6039970014847</v>
+        <v>695.5020655703115</v>
       </c>
     </row>
     <row r="41">
@@ -7400,28 +7400,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111706</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075799</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.422291068009</v>
@@ -7491,22 +7491,22 @@
         <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>448.1846595309957</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L42" t="n">
-        <v>943.5102657467545</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="M42" t="n">
-        <v>1540.888753373306</v>
+        <v>842.6091804069456</v>
       </c>
       <c r="N42" t="n">
-        <v>1540.888753373306</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>2092.798483612593</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
         <v>2516.421633107662</v>
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>580.8993044876693</v>
+        <v>513.8536007400713</v>
       </c>
       <c r="C43" t="n">
-        <v>411.9631215597626</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="D43" t="n">
-        <v>411.9631215597626</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="E43" t="n">
-        <v>264.0500279773694</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>117.160080479459</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
         <v>93.81666304797187</v>
@@ -7567,13 +7567,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
@@ -7588,31 +7588,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>762.547769317909</v>
+        <v>695.5020655703111</v>
       </c>
     </row>
     <row r="44">
@@ -7625,7 +7625,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D44" t="n">
         <v>1590.547811004713</v>
@@ -7640,55 +7640,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111712</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075806</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7710,7 +7710,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7719,34 +7719,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J45" t="n">
-        <v>95.58405025273905</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>924.8344286397185</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>924.8344286397185</v>
+        <v>1655.562009178173</v>
       </c>
       <c r="N45" t="n">
-        <v>1552.432392194325</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190824</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,28 +7780,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1051.96493935487</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C46" t="n">
-        <v>883.0287564269628</v>
+        <v>344.9174178121645</v>
       </c>
       <c r="D46" t="n">
-        <v>732.912117014627</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="E46" t="n">
-        <v>584.9990234322339</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F46" t="n">
-        <v>438.1090759343236</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G46" t="n">
-        <v>270.9129766492035</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H46" t="n">
-        <v>129.2011454914016</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782957</v>
@@ -7825,31 +7825,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1500.747069396417</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1272.7575184984</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>1051.96493935487</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
   </sheetData>
@@ -8000,7 +8000,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.51967546761153</v>
+        <v>60.51967546761151</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>99.37288961069065</v>
+        <v>28.18495819153179</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8064,7 +8064,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>71.18793141915887</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8237,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>34.58458098752857</v>
+        <v>34.58458098752808</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8298,13 +8298,13 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>96.38026647297386</v>
       </c>
       <c r="M6" t="n">
-        <v>117.5114701984778</v>
+        <v>134.5213033907486</v>
       </c>
       <c r="N6" t="n">
-        <v>113.3900996652422</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -8529,16 +8529,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>21.18099370047514</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>168.7434581780643</v>
       </c>
       <c r="M9" t="n">
-        <v>273.6534998179985</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -23258,16 +23258,16 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>52.37624033410509</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23276,7 +23276,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>22.6077720323801</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,13 +23306,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>97.97552699114092</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9558092037176</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23324,7 +23324,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>27.62915296996891</v>
       </c>
     </row>
     <row r="12">
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>43.14636899767885</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.8050985482227</v>
       </c>
       <c r="H13" t="n">
         <v>142.7927049400678</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>89.71507747034045</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23473,16 +23473,16 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>88.5827518460901</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23501,13 +23501,13 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>50.29152613729326</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>50.29152613728957</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23659,19 +23659,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>84.16945386597396</v>
       </c>
       <c r="H16" t="n">
         <v>140.4539897919539</v>
       </c>
       <c r="I16" t="n">
-        <v>81.80457674440905</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>67.18075159108359</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>129.0117327624541</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23896,19 +23896,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>40.32043864787978</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23950,7 +23950,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>85.96822242532699</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -23975,7 +23975,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>1.70530256582424e-13</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -23984,7 +23984,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24130,22 +24130,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>65.54986409393102</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,13 +24175,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>99.26785128072164</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24361,28 +24361,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24424,10 +24424,10 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>22.81817176293674</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>211.9838267405</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24604,13 +24604,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>65.54986409392713</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24619,7 +24619,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>7.276848373210839</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24844,16 +24844,16 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>46.4596884482276</v>
       </c>
       <c r="F31" t="n">
-        <v>103.8640922513155</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856552</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25081,19 +25081,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>40.32043864787988</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25129,10 +25129,10 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>7.06518866981311</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25312,22 +25312,22 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>26.97729093373144</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>62.35543909864892</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856552</v>
@@ -25369,7 +25369,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25378,7 +25378,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25558,10 +25558,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>45.4467738245925</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25603,7 +25603,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>144.59566540674</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25789,16 +25789,16 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>46.45968844823088</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>142.4141550350966</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26020,28 +26020,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>45.44677382459294</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>46.23519869957006</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26083,7 +26083,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>859203.4185105619</v>
+        <v>859203.4185105605</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>934670.6727189695</v>
+        <v>934670.67271897</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>939807.5249787412</v>
+        <v>939807.5249787413</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>939807.5249787413</v>
+        <v>939807.5249787411</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>939807.5249787412</v>
+        <v>939807.5249787411</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>939807.5249787413</v>
+        <v>939807.5249787412</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>939807.5249787414</v>
+        <v>939807.5249787413</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>939807.5249787412</v>
+        <v>939807.5249787411</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>939807.5249787412</v>
+        <v>939807.5249787411</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>939807.5249787413</v>
+        <v>939807.5249787411</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>492625.0619185701</v>
+        <v>492625.0619185705</v>
       </c>
       <c r="C2" t="n">
-        <v>492625.06191857</v>
+        <v>492625.0619185698</v>
       </c>
       <c r="D2" t="n">
         <v>492625.0619185701</v>
       </c>
       <c r="E2" t="n">
-        <v>442233.6433958231</v>
+        <v>442233.6433958223</v>
       </c>
       <c r="F2" t="n">
-        <v>481607.8629828183</v>
+        <v>481607.8629828185</v>
       </c>
       <c r="G2" t="n">
-        <v>484287.9598140037</v>
+        <v>484287.9598140036</v>
       </c>
       <c r="H2" t="n">
-        <v>484287.9598140037</v>
+        <v>484287.9598140036</v>
       </c>
       <c r="I2" t="n">
-        <v>484287.9598140036</v>
+        <v>484287.9598140034</v>
       </c>
       <c r="J2" t="n">
         <v>484287.9598140037</v>
       </c>
       <c r="K2" t="n">
-        <v>484287.9598140037</v>
+        <v>484287.9598140038</v>
       </c>
       <c r="L2" t="n">
-        <v>484287.959814004</v>
+        <v>484287.9598140038</v>
       </c>
       <c r="M2" t="n">
-        <v>484287.9598140037</v>
+        <v>484287.9598140036</v>
       </c>
       <c r="N2" t="n">
-        <v>484287.9598140037</v>
+        <v>484287.9598140035</v>
       </c>
       <c r="O2" t="n">
-        <v>484287.9598140035</v>
+        <v>484287.9598140036</v>
       </c>
       <c r="P2" t="n">
-        <v>484287.9598140035</v>
+        <v>484287.9598140036</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>680087.9805911931</v>
+        <v>680087.9805911932</v>
       </c>
       <c r="C3" t="n">
-        <v>132064.9098103507</v>
+        <v>132064.909810353</v>
       </c>
       <c r="D3" t="n">
-        <v>266112.9182196388</v>
+        <v>266112.9182196365</v>
       </c>
       <c r="E3" t="n">
-        <v>325187.1190357079</v>
+        <v>325187.1190357052</v>
       </c>
       <c r="F3" t="n">
-        <v>166521.3471051362</v>
+        <v>166521.3471051395</v>
       </c>
       <c r="G3" t="n">
-        <v>11167.23623557958</v>
+        <v>11167.23623557922</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911413</v>
+        <v>68999.15441911432</v>
       </c>
       <c r="K3" t="n">
-        <v>30705.53736648295</v>
+        <v>30705.53736648349</v>
       </c>
       <c r="L3" t="n">
-        <v>65187.38037950916</v>
+        <v>65187.38037950858</v>
       </c>
       <c r="M3" t="n">
-        <v>84929.59434456857</v>
+        <v>84929.5943445679</v>
       </c>
       <c r="N3" t="n">
-        <v>43782.40655848861</v>
+        <v>43782.40655848948</v>
       </c>
       <c r="O3" t="n">
-        <v>3023.297977224802</v>
+        <v>3023.297977224693</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,16 +26415,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>253016.7649073352</v>
+        <v>253016.7649073351</v>
       </c>
       <c r="C4" t="n">
-        <v>217658.7366997675</v>
+        <v>217658.7366997668</v>
       </c>
       <c r="D4" t="n">
         <v>142746.9572676995</v>
       </c>
       <c r="E4" t="n">
-        <v>12287.79922451209</v>
+        <v>12287.79922451208</v>
       </c>
       <c r="F4" t="n">
         <v>12380.38756059278</v>
@@ -26439,25 +26439,25 @@
         <v>12386.92018181813</v>
       </c>
       <c r="J4" t="n">
-        <v>12386.9201818181</v>
+        <v>12386.92018181814</v>
       </c>
       <c r="K4" t="n">
         <v>12386.92018181814</v>
       </c>
       <c r="L4" t="n">
-        <v>12386.92018181815</v>
+        <v>12386.92018181814</v>
       </c>
       <c r="M4" t="n">
-        <v>12386.92018181807</v>
+        <v>12386.92018181809</v>
       </c>
       <c r="N4" t="n">
-        <v>12386.92018181809</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="O4" t="n">
-        <v>12386.92018181813</v>
+        <v>12386.92018181814</v>
       </c>
       <c r="P4" t="n">
-        <v>12386.92018181813</v>
+        <v>12386.92018181811</v>
       </c>
     </row>
     <row r="5">
@@ -26467,22 +26467,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63047.80320426619</v>
+        <v>63047.8032042662</v>
       </c>
       <c r="C5" t="n">
-        <v>72540.50950589705</v>
+        <v>72540.50950589722</v>
       </c>
       <c r="D5" t="n">
         <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
-        <v>86093.72216214723</v>
+        <v>86093.72216214699</v>
       </c>
       <c r="F5" t="n">
         <v>100142.1285138384</v>
       </c>
       <c r="G5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="H5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-503527.4867842243</v>
+        <v>-503527.486784224</v>
       </c>
       <c r="C6" t="n">
-        <v>70360.9059025547</v>
+        <v>70360.90590255278</v>
       </c>
       <c r="D6" t="n">
-        <v>-9172.586008612852</v>
+        <v>-9172.586008610582</v>
       </c>
       <c r="E6" t="n">
-        <v>18665.00297345592</v>
+        <v>18455.03872961318</v>
       </c>
       <c r="F6" t="n">
-        <v>202563.999803251</v>
+        <v>202518.0948076822</v>
       </c>
       <c r="G6" t="n">
-        <v>359611.2735726988</v>
+        <v>359576.5356472633</v>
       </c>
       <c r="H6" t="n">
-        <v>370778.5098082784</v>
+        <v>370743.7718828431</v>
       </c>
       <c r="I6" t="n">
-        <v>370778.5098082784</v>
+        <v>370743.7718828425</v>
       </c>
       <c r="J6" t="n">
-        <v>301779.3553891644</v>
+        <v>301744.6174637285</v>
       </c>
       <c r="K6" t="n">
-        <v>340072.9724417955</v>
+        <v>340038.2345163594</v>
       </c>
       <c r="L6" t="n">
-        <v>305591.1294287695</v>
+        <v>305556.3915033342</v>
       </c>
       <c r="M6" t="n">
-        <v>285848.9154637099</v>
+        <v>285814.1775382748</v>
       </c>
       <c r="N6" t="n">
-        <v>326996.1032497899</v>
+        <v>326961.365324353</v>
       </c>
       <c r="O6" t="n">
-        <v>367755.2118310534</v>
+        <v>367720.4739056179</v>
       </c>
       <c r="P6" t="n">
-        <v>370778.5098082782</v>
+        <v>370743.7718828426</v>
       </c>
     </row>
   </sheetData>
@@ -26735,19 +26735,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694783</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
-        <v>716.7570176605199</v>
+        <v>716.7570176605218</v>
       </c>
       <c r="D3" t="n">
         <v>934.0648921175391</v>
       </c>
       <c r="E3" t="n">
-        <v>1212.170267494557</v>
+        <v>1212.170267494555</v>
       </c>
       <c r="F3" t="n">
-        <v>1358.041048716385</v>
+        <v>1358.041048716386</v>
       </c>
       <c r="G3" t="n">
         <v>1367.975500341674</v>
@@ -26787,19 +26787,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="C4" t="n">
-        <v>383.0198440937124</v>
+        <v>383.0198440937146</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="E4" t="n">
-        <v>981.3883278086494</v>
+        <v>981.3883278086465</v>
       </c>
       <c r="F4" t="n">
-        <v>1160.145290326006</v>
+        <v>1160.145290326007</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099649</v>
@@ -26823,13 +26823,13 @@
         <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
     </row>
   </sheetData>
@@ -26957,22 +26957,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694783</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
-        <v>102.7020038910416</v>
+        <v>102.7020038910434</v>
       </c>
       <c r="D3" t="n">
-        <v>217.3078744570192</v>
+        <v>217.3078744570173</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1053753770179</v>
+        <v>278.1053753770157</v>
       </c>
       <c r="F3" t="n">
-        <v>145.8707812218283</v>
+        <v>145.8707812218311</v>
       </c>
       <c r="G3" t="n">
-        <v>9.934451625288602</v>
+        <v>9.934451625288375</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26981,7 +26981,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27009,25 +27009,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="C4" t="n">
-        <v>119.3059640922063</v>
+        <v>119.3059640922084</v>
       </c>
       <c r="D4" t="n">
-        <v>257.5649880063264</v>
+        <v>257.5649880063241</v>
       </c>
       <c r="E4" t="n">
-        <v>340.8034957086105</v>
+        <v>340.8034957086078</v>
       </c>
       <c r="F4" t="n">
-        <v>178.7569625173567</v>
+        <v>178.7569625173604</v>
       </c>
       <c r="G4" t="n">
-        <v>12.56299777364256</v>
+        <v>12.56299777364188</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>-2.861948103225814e-13</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27036,19 +27036,19 @@
         <v>263.7138800015064</v>
       </c>
       <c r="K4" t="n">
-        <v>119.3059640922063</v>
+        <v>119.3059640922084</v>
       </c>
       <c r="L4" t="n">
-        <v>257.5649880063264</v>
+        <v>257.5649880063241</v>
       </c>
       <c r="M4" t="n">
-        <v>340.8034957086105</v>
+        <v>340.8034957086078</v>
       </c>
       <c r="N4" t="n">
-        <v>178.7569625173567</v>
+        <v>178.7569625173602</v>
       </c>
       <c r="O4" t="n">
-        <v>12.56299777364234</v>
+        <v>12.56299777364188</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27255,22 +27255,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="K4" t="n">
-        <v>119.3059640922063</v>
+        <v>119.3059640922084</v>
       </c>
       <c r="L4" t="n">
-        <v>257.5649880063264</v>
+        <v>257.5649880063241</v>
       </c>
       <c r="M4" t="n">
-        <v>340.8034957086105</v>
+        <v>340.8034957086078</v>
       </c>
       <c r="N4" t="n">
-        <v>178.7569625173567</v>
+        <v>178.7569625173604</v>
       </c>
       <c r="O4" t="n">
-        <v>12.56299777364256</v>
+        <v>12.56299777364188</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,10 +27376,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>119.0199616619744</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>255.1763715542896</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27391,13 +27391,13 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>149.1202946442039</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>314.193632629268</v>
+        <v>50.4797526277618</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,19 +27427,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>212.2897156032232</v>
+        <v>139.9227315613165</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1481678782825</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>64.03837846862871</v>
       </c>
       <c r="W2" t="n">
-        <v>85.52708871590687</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27455,28 +27455,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>100.7465148316238</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
-        <v>99.47932027120976</v>
+        <v>99.47932027120974</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>43.92180400150558</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,7 +27503,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527768</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>147.1499354121988</v>
@@ -27512,16 +27512,16 @@
         <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8544875035546</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>178.8207042937004</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -27540,25 +27540,25 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>114.088771124796</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H4" t="n">
-        <v>97.46750599667573</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>15.07219909888208</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27585,13 +27585,13 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>204.7191642435938</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2586305026775</v>
+        <v>22.5447505011713</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27600,7 +27600,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>94.22363366815739</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27625,13 +27625,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>23.85620164799684</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>309.9653033936936</v>
+        <v>309.9653033936935</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27667,22 +27667,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>210.4823667709296</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1151380880864</v>
       </c>
       <c r="V5" t="n">
-        <v>107.2409994947427</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>3.21809456234115</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27695,13 +27695,13 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>32.43130881101375</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -27710,10 +27710,10 @@
         <v>135.8018133893748</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>97.34583147339769</v>
       </c>
       <c r="I6" t="n">
-        <v>36.31604239259355</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,25 +27740,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>4.436963001677825</v>
+        <v>4.436963001677555</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>143.0466996907028</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8399542011172</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>177.9161702973721</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -27774,13 +27774,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27789,13 +27789,13 @@
         <v>166.6984667036611</v>
       </c>
       <c r="H7" t="n">
-        <v>150.735559994784</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>116.5810943629796</v>
+        <v>116.5810943629795</v>
       </c>
       <c r="J7" t="n">
-        <v>1.978535422478316</v>
+        <v>1.978535422478075</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27822,22 +27822,22 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>201.4916274983622</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>222.4230353577824</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2485286662292</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>44.96539151645925</v>
       </c>
       <c r="W7" t="n">
-        <v>3.406837407620685</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27862,7 +27862,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27871,7 +27871,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,13 +27901,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>97.01228554159115</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27916,10 +27916,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>383.4985490209933</v>
       </c>
     </row>
     <row r="9">
@@ -28008,13 +28008,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28023,13 +28023,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>127.0117502987374</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,22 +28056,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>61.88397726002358</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28618,7 +28618,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>-1.828937001846498e-12</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -28722,7 +28722,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>6.065974389457551e-12</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -29272,7 +29272,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>-8.44124770082999e-13</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -29484,7 +29484,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>3.211653165635653e-12</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -29512,7 +29512,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>-3.353794564184568e-13</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -29572,7 +29572,7 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>-8.44124770082999e-13</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -29685,37 +29685,37 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0</v>
+      </c>
+      <c r="R31" t="n">
         <v>3.395446886618932e-12</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0</v>
-      </c>
-      <c r="L31" t="n">
-        <v>0</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" t="n">
-        <v>0</v>
-      </c>
-      <c r="O31" t="n">
-        <v>0</v>
-      </c>
-      <c r="P31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>0</v>
-      </c>
-      <c r="R31" t="n">
-        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -29749,7 +29749,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>-1.591076287132588e-12</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -29761,7 +29761,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>-9.203810736392348e-13</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -29919,7 +29919,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>7.560174708487466e-12</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -29943,7 +29943,7 @@
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>5.335702250401179e-12</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
@@ -29983,7 +29983,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>-8.30056023914949e-13</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -30037,7 +30037,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>-1.250555214937776e-12</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -30457,7 +30457,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -30700,7 +30700,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -31039,31 +31039,31 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.468562869425036</v>
+        <v>2.468562869425037</v>
       </c>
       <c r="H2" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I2" t="n">
-        <v>95.1692700235088</v>
+        <v>95.16927002350883</v>
       </c>
       <c r="J2" t="n">
         <v>209.5161878388634</v>
       </c>
       <c r="K2" t="n">
-        <v>314.0104541016252</v>
+        <v>314.0104541016253</v>
       </c>
       <c r="L2" t="n">
         <v>389.5577350167918</v>
       </c>
       <c r="M2" t="n">
-        <v>433.4580399459292</v>
+        <v>433.4580399459293</v>
       </c>
       <c r="N2" t="n">
-        <v>440.4718441986831</v>
+        <v>440.4718441986832</v>
       </c>
       <c r="O2" t="n">
-        <v>415.9250721658379</v>
+        <v>415.925072165838</v>
       </c>
       <c r="P2" t="n">
         <v>354.9824263269073</v>
@@ -31075,7 +31075,7 @@
         <v>155.0658623465206</v>
       </c>
       <c r="S2" t="n">
-        <v>56.25237638702307</v>
+        <v>56.25237638702308</v>
       </c>
       <c r="T2" t="n">
         <v>10.8061339609081</v>
@@ -31124,16 +31124,16 @@
         <v>12.75612396528671</v>
       </c>
       <c r="I3" t="n">
-        <v>45.47482884990948</v>
+        <v>45.47482884990949</v>
       </c>
       <c r="J3" t="n">
-        <v>124.7864061472484</v>
+        <v>124.7864061472485</v>
       </c>
       <c r="K3" t="n">
         <v>213.2798437919895</v>
       </c>
       <c r="L3" t="n">
-        <v>286.7810703458304</v>
+        <v>286.7810703458305</v>
       </c>
       <c r="M3" t="n">
         <v>334.6599825043656</v>
@@ -31142,25 +31142,25 @@
         <v>343.517436429399</v>
       </c>
       <c r="O3" t="n">
-        <v>314.2513427542725</v>
+        <v>314.2513427542726</v>
       </c>
       <c r="P3" t="n">
-        <v>252.2144074480712</v>
+        <v>252.2144074480713</v>
       </c>
       <c r="Q3" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R3" t="n">
-        <v>82.00530919736545</v>
+        <v>82.00530919736546</v>
       </c>
       <c r="S3" t="n">
         <v>24.53323569163905</v>
       </c>
       <c r="T3" t="n">
-        <v>5.323741109944814</v>
+        <v>5.323741109944815</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08689457742020923</v>
+        <v>0.08689457742020924</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31200,16 +31200,16 @@
         <v>1.107312319912174</v>
       </c>
       <c r="H4" t="n">
-        <v>9.845013171582789</v>
+        <v>9.84501317158279</v>
       </c>
       <c r="I4" t="n">
         <v>33.29990140244975</v>
       </c>
       <c r="J4" t="n">
-        <v>78.28698101779068</v>
+        <v>78.28698101779069</v>
       </c>
       <c r="K4" t="n">
-        <v>128.6495586225234</v>
+        <v>128.6495586225235</v>
       </c>
       <c r="L4" t="n">
         <v>164.6271425440336</v>
@@ -31221,25 +31221,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O4" t="n">
-        <v>156.513563181768</v>
+        <v>156.5135631817681</v>
       </c>
       <c r="P4" t="n">
         <v>133.9243918555596</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.72230707919121</v>
+        <v>92.72230707919122</v>
       </c>
       <c r="R4" t="n">
-        <v>49.78878849350555</v>
+        <v>49.78878849350556</v>
       </c>
       <c r="S4" t="n">
-        <v>19.29743379337851</v>
+        <v>19.29743379337852</v>
       </c>
       <c r="T4" t="n">
-        <v>4.731243548715651</v>
+        <v>4.731243548715652</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06039885381339136</v>
+        <v>0.06039885381339138</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.881435246876459</v>
+        <v>2.881435246876467</v>
       </c>
       <c r="H5" t="n">
-        <v>29.50949872207355</v>
+        <v>29.50949872207363</v>
       </c>
       <c r="I5" t="n">
-        <v>111.0865323552048</v>
+        <v>111.0865323552051</v>
       </c>
       <c r="J5" t="n">
-        <v>244.5582147845811</v>
+        <v>244.5582147845818</v>
       </c>
       <c r="K5" t="n">
-        <v>366.5293687848617</v>
+        <v>366.5293687848628</v>
       </c>
       <c r="L5" t="n">
-        <v>454.7120927214573</v>
+        <v>454.7120927214585</v>
       </c>
       <c r="M5" t="n">
-        <v>505.9548167930965</v>
+        <v>505.9548167930978</v>
       </c>
       <c r="N5" t="n">
-        <v>514.1416946882842</v>
+        <v>514.1416946882857</v>
       </c>
       <c r="O5" t="n">
-        <v>485.4894229521565</v>
+        <v>485.4894229521578</v>
       </c>
       <c r="P5" t="n">
-        <v>414.3539902948938</v>
+        <v>414.3539902948949</v>
       </c>
       <c r="Q5" t="n">
-        <v>311.1625905161305</v>
+        <v>311.1625905161313</v>
       </c>
       <c r="R5" t="n">
-        <v>181.0009568266036</v>
+        <v>181.000956826604</v>
       </c>
       <c r="S5" t="n">
-        <v>65.66070568819738</v>
+        <v>65.66070568819757</v>
       </c>
       <c r="T5" t="n">
-        <v>12.61348279320171</v>
+        <v>12.61348279320174</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2305148197501167</v>
+        <v>0.2305148197501173</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.541703773835835</v>
+        <v>1.541703773835839</v>
       </c>
       <c r="H6" t="n">
-        <v>14.88961276309873</v>
+        <v>14.88961276309877</v>
       </c>
       <c r="I6" t="n">
-        <v>53.08059045882153</v>
+        <v>53.08059045882167</v>
       </c>
       <c r="J6" t="n">
-        <v>145.6571973342006</v>
+        <v>145.657197334201</v>
       </c>
       <c r="K6" t="n">
-        <v>248.9513501812015</v>
+        <v>248.9513501812022</v>
       </c>
       <c r="L6" t="n">
-        <v>334.7458128234343</v>
+        <v>334.7458128234352</v>
       </c>
       <c r="M6" t="n">
-        <v>390.6325746249832</v>
+        <v>390.6325746249843</v>
       </c>
       <c r="N6" t="n">
-        <v>400.9714565118035</v>
+        <v>400.9714565118045</v>
       </c>
       <c r="O6" t="n">
-        <v>366.8105465757568</v>
+        <v>366.8105465757578</v>
       </c>
       <c r="P6" t="n">
-        <v>294.3978022160728</v>
+        <v>294.3978022160736</v>
       </c>
       <c r="Q6" t="n">
-        <v>196.797134358413</v>
+        <v>196.7971343584135</v>
       </c>
       <c r="R6" t="n">
-        <v>95.72087115096531</v>
+        <v>95.72087115096558</v>
       </c>
       <c r="S6" t="n">
-        <v>28.6364714131349</v>
+        <v>28.63647141313498</v>
       </c>
       <c r="T6" t="n">
-        <v>6.214148105943561</v>
+        <v>6.214148105943578</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1014278798576208</v>
+        <v>0.1014278798576211</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.292512654797659</v>
+        <v>1.292512654797662</v>
       </c>
       <c r="H7" t="n">
-        <v>11.49161251265556</v>
+        <v>11.49161251265559</v>
       </c>
       <c r="I7" t="n">
-        <v>38.86938056427869</v>
+        <v>38.8693805642788</v>
       </c>
       <c r="J7" t="n">
-        <v>91.38064469419446</v>
+        <v>91.3806446941947</v>
       </c>
       <c r="K7" t="n">
-        <v>150.1664702574007</v>
+        <v>150.1664702574011</v>
       </c>
       <c r="L7" t="n">
-        <v>192.161381423281</v>
+        <v>192.1613814232815</v>
       </c>
       <c r="M7" t="n">
-        <v>202.6072336970548</v>
+        <v>202.6072336970553</v>
       </c>
       <c r="N7" t="n">
-        <v>197.7896865291727</v>
+        <v>197.7896865291733</v>
       </c>
       <c r="O7" t="n">
-        <v>182.6907886981273</v>
+        <v>182.6907886981278</v>
       </c>
       <c r="P7" t="n">
-        <v>156.3235305402549</v>
+        <v>156.3235305402554</v>
       </c>
       <c r="Q7" t="n">
-        <v>108.2303096667385</v>
+        <v>108.2303096667388</v>
       </c>
       <c r="R7" t="n">
-        <v>58.11606900572016</v>
+        <v>58.11606900572032</v>
       </c>
       <c r="S7" t="n">
-        <v>22.5249705386101</v>
+        <v>22.52497053861016</v>
       </c>
       <c r="T7" t="n">
-        <v>5.522554070499085</v>
+        <v>5.5225540704991</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07050069026169055</v>
+        <v>0.07050069026169074</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.873046301485653</v>
+        <v>4.873046301485644</v>
       </c>
       <c r="H11" t="n">
-        <v>49.90608543508996</v>
+        <v>49.90608543508986</v>
       </c>
       <c r="I11" t="n">
-        <v>187.8681175380258</v>
+        <v>187.8681175380254</v>
       </c>
       <c r="J11" t="n">
-        <v>413.5937135307183</v>
+        <v>413.5937135307175</v>
       </c>
       <c r="K11" t="n">
-        <v>619.8697634726061</v>
+        <v>619.869763472605</v>
       </c>
       <c r="L11" t="n">
-        <v>769.0032542216978</v>
+        <v>769.0032542216964</v>
       </c>
       <c r="M11" t="n">
-        <v>855.6642913857432</v>
+        <v>855.6642913857416</v>
       </c>
       <c r="N11" t="n">
-        <v>869.5098341898395</v>
+        <v>869.5098341898378</v>
       </c>
       <c r="O11" t="n">
-        <v>821.0534800294414</v>
+        <v>821.0534800294399</v>
       </c>
       <c r="P11" t="n">
-        <v>700.7501494615143</v>
+        <v>700.7501494615129</v>
       </c>
       <c r="Q11" t="n">
-        <v>526.2341787895591</v>
+        <v>526.2341787895582</v>
       </c>
       <c r="R11" t="n">
-        <v>306.1064947356984</v>
+        <v>306.1064947356978</v>
       </c>
       <c r="S11" t="n">
-        <v>111.0445425951044</v>
+        <v>111.0445425951042</v>
       </c>
       <c r="T11" t="n">
-        <v>21.33176018475346</v>
+        <v>21.33176018475342</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3898437041188522</v>
+        <v>0.3898437041188514</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.607309631969425</v>
+        <v>2.60730963196942</v>
       </c>
       <c r="H12" t="n">
-        <v>25.18112197191524</v>
+        <v>25.18112197191519</v>
       </c>
       <c r="I12" t="n">
-        <v>89.76921320596485</v>
+        <v>89.76921320596469</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>246.3335823783038</v>
       </c>
       <c r="K12" t="n">
-        <v>421.0233277202557</v>
+        <v>421.0233277202549</v>
       </c>
       <c r="L12" t="n">
-        <v>566.117821625642</v>
+        <v>566.117821625641</v>
       </c>
       <c r="M12" t="n">
-        <v>660.6327957845335</v>
+        <v>660.6327957845323</v>
       </c>
       <c r="N12" t="n">
-        <v>678.1177801147145</v>
+        <v>237.3367583732607</v>
       </c>
       <c r="O12" t="n">
-        <v>508.1016396238871</v>
+        <v>620.3452877431803</v>
       </c>
       <c r="P12" t="n">
-        <v>497.8817840205475</v>
+        <v>497.8817840205465</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>332.8207874071842</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>161.8819085533295</v>
       </c>
       <c r="S12" t="n">
-        <v>48.42963285697591</v>
+        <v>48.42963285697581</v>
       </c>
       <c r="T12" t="n">
-        <v>10.50928750780658</v>
+        <v>10.50928750780656</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1715335284190412</v>
+        <v>0.1715335284190408</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.185880810236086</v>
+        <v>2.185880810236082</v>
       </c>
       <c r="H13" t="n">
-        <v>19.43446756737176</v>
+        <v>19.43446756737173</v>
       </c>
       <c r="I13" t="n">
-        <v>65.73539745691797</v>
+        <v>65.73539745691784</v>
       </c>
       <c r="J13" t="n">
-        <v>154.5417732836913</v>
+        <v>154.541773283691</v>
       </c>
       <c r="K13" t="n">
-        <v>253.9596068619743</v>
+        <v>253.9596068619738</v>
       </c>
       <c r="L13" t="n">
-        <v>324.9808615509178</v>
+        <v>324.9808615509172</v>
       </c>
       <c r="M13" t="n">
-        <v>342.6467528263712</v>
+        <v>342.6467528263705</v>
       </c>
       <c r="N13" t="n">
-        <v>334.4993788973097</v>
+        <v>334.499378897309</v>
       </c>
       <c r="O13" t="n">
-        <v>308.9643167050062</v>
+        <v>308.9643167050056</v>
       </c>
       <c r="P13" t="n">
-        <v>264.3723481761898</v>
+        <v>264.3723481761893</v>
       </c>
       <c r="Q13" t="n">
-        <v>183.0377103916781</v>
+        <v>183.0377103916778</v>
       </c>
       <c r="R13" t="n">
-        <v>98.28514988570618</v>
+        <v>98.28514988570599</v>
       </c>
       <c r="S13" t="n">
-        <v>38.09394102929615</v>
+        <v>38.09394102929608</v>
       </c>
       <c r="T13" t="n">
-        <v>9.339672552826912</v>
+        <v>9.339672552826894</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1192298623765139</v>
+        <v>0.1192298623765137</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.459461502377424</v>
+        <v>5.459461502377426</v>
       </c>
       <c r="H14" t="n">
-        <v>55.91171011122281</v>
+        <v>55.91171011122283</v>
       </c>
       <c r="I14" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>463.3649706874064</v>
+        <v>463.3649706874065</v>
       </c>
       <c r="K14" t="n">
-        <v>694.4639760830429</v>
+        <v>694.4639760830431</v>
       </c>
       <c r="L14" t="n">
-        <v>861.5439710364261</v>
+        <v>861.5439710364265</v>
       </c>
       <c r="M14" t="n">
-        <v>958.6336695293306</v>
+        <v>958.633669529331</v>
       </c>
       <c r="N14" t="n">
-        <v>974.1453645229606</v>
+        <v>974.1453645229609</v>
       </c>
       <c r="O14" t="n">
-        <v>919.857844208695</v>
+        <v>919.8578442086953</v>
       </c>
       <c r="P14" t="n">
-        <v>785.0773883687522</v>
+        <v>785.0773883687525</v>
       </c>
       <c r="Q14" t="n">
-        <v>589.5604233148605</v>
+        <v>589.5604233148607</v>
       </c>
       <c r="R14" t="n">
-        <v>342.9428985987162</v>
+        <v>342.9428985987163</v>
       </c>
       <c r="S14" t="n">
         <v>124.4074789854257</v>
       </c>
       <c r="T14" t="n">
-        <v>23.89879272665719</v>
+        <v>23.8987927266572</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4367569201901939</v>
+        <v>0.436756920190194</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,10 +32066,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.921069425540904</v>
+        <v>2.921069425540905</v>
       </c>
       <c r="H15" t="n">
-        <v>28.2113810308819</v>
+        <v>28.21138103088191</v>
       </c>
       <c r="I15" t="n">
         <v>100.5719078530531</v>
@@ -32078,34 +32078,34 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L15" t="n">
-        <v>151.1434552068906</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M15" t="n">
-        <v>740.13237155043</v>
+        <v>740.1323715504302</v>
       </c>
       <c r="N15" t="n">
-        <v>759.7214730927636</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>694.9967242426203</v>
+        <v>506.4291208739044</v>
       </c>
       <c r="P15" t="n">
-        <v>557.7961431982452</v>
+        <v>557.7961431982454</v>
       </c>
       <c r="Q15" t="n">
-        <v>372.8719498286952</v>
+        <v>372.8719498286953</v>
       </c>
       <c r="R15" t="n">
-        <v>181.3625385436713</v>
+        <v>181.3625385436714</v>
       </c>
       <c r="S15" t="n">
-        <v>54.25758340862159</v>
+        <v>54.25758340862161</v>
       </c>
       <c r="T15" t="n">
-        <v>11.77395965821092</v>
+        <v>11.77395965821093</v>
       </c>
       <c r="U15" t="n">
         <v>0.1921756201013754</v>
@@ -32145,34 +32145,34 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.448926481291842</v>
+        <v>2.448926481291843</v>
       </c>
       <c r="H16" t="n">
         <v>21.77318271548567</v>
       </c>
       <c r="I16" t="n">
-        <v>73.64589818284924</v>
+        <v>73.64589818284927</v>
       </c>
       <c r="J16" t="n">
-        <v>173.1391022273332</v>
+        <v>173.1391022273333</v>
       </c>
       <c r="K16" t="n">
-        <v>284.5207311900885</v>
+        <v>284.5207311900886</v>
       </c>
       <c r="L16" t="n">
-        <v>364.0885788640618</v>
+        <v>364.0885788640619</v>
       </c>
       <c r="M16" t="n">
-        <v>383.8803574265021</v>
+        <v>383.8803574265022</v>
       </c>
       <c r="N16" t="n">
-        <v>374.7525405416873</v>
+        <v>374.7525405416875</v>
       </c>
       <c r="O16" t="n">
-        <v>346.1446266465962</v>
+        <v>346.1446266465963</v>
       </c>
       <c r="P16" t="n">
-        <v>296.1865264282423</v>
+        <v>296.1865264282424</v>
       </c>
       <c r="Q16" t="n">
         <v>205.0641983561742</v>
@@ -32181,7 +32181,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S16" t="n">
-        <v>42.67810967851327</v>
+        <v>42.67810967851329</v>
       </c>
       <c r="T16" t="n">
         <v>10.46359496551969</v>
@@ -32224,40 +32224,40 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S17" t="n">
         <v>125.3175546292901</v>
@@ -32266,7 +32266,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32309,37 +32309,37 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>170.9292585737919</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O18" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>354.9153144485699</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
@@ -32382,13 +32382,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H19" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796262</v>
@@ -32406,7 +32406,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
@@ -32418,7 +32418,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>734.2678383622665</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>363.5371514786841</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>244.0266243181827</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>628.2482078836097</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33023,28 +33023,28 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>454.1257695262132</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q27" t="n">
-        <v>140.7358547888808</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R27" t="n">
         <v>182.6892564418561</v>
@@ -33266,16 +33266,16 @@
         <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>240.4469701760385</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>320.9147064709962</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
         <v>561.8765786214699</v>
@@ -33500,19 +33500,19 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>396.9700886943664</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>688.8020111197783</v>
       </c>
       <c r="P33" t="n">
         <v>561.8765786214699</v>
@@ -33737,28 +33737,28 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>227.8611086463986</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>382.1329742631536</v>
       </c>
       <c r="Q36" t="n">
         <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742439</v>
@@ -33968,25 +33968,25 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>536.3866168795493</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>461.1007071927452</v>
       </c>
       <c r="P39" t="n">
         <v>561.8765786214699</v>
@@ -34211,16 +34211,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>342.8454457931489</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>601.0567753070487</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437244</v>
@@ -34229,7 +34229,7 @@
         <v>561.8765786214699</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
@@ -34445,7 +34445,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422586</v>
@@ -34454,22 +34454,22 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>729.0844763571693</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>489.8124929257566</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>375.5996128485291</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742439</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.47028331217709</v>
+        <v>28.47028331217712</v>
       </c>
       <c r="K2" t="n">
-        <v>93.92060305664467</v>
+        <v>93.92060305664472</v>
       </c>
       <c r="L2" t="n">
-        <v>153.7913200468045</v>
+        <v>153.7913200468046</v>
       </c>
       <c r="M2" t="n">
-        <v>203.1118067186565</v>
+        <v>203.1118067186566</v>
       </c>
       <c r="N2" t="n">
-        <v>211.0587806020922</v>
+        <v>211.0587806020923</v>
       </c>
       <c r="O2" t="n">
-        <v>185.8268607441512</v>
+        <v>185.8268607441513</v>
       </c>
       <c r="P2" t="n">
-        <v>123.7494305716377</v>
+        <v>123.7494305716378</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.27132869117358</v>
+        <v>44.27132869117364</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,16 +34775,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>97.32166909127238</v>
+        <v>26.13373767211355</v>
       </c>
       <c r="K3" t="n">
-        <v>75.43840481763047</v>
+        <v>75.4384048176305</v>
       </c>
       <c r="L3" t="n">
-        <v>148.2266905659562</v>
+        <v>148.2266905659563</v>
       </c>
       <c r="M3" t="n">
-        <v>192.5259485823473</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="N3" t="n">
         <v>212.1757243460657</v>
@@ -34796,7 +34796,7 @@
         <v>118.240000033741</v>
       </c>
       <c r="Q3" t="n">
-        <v>28.61687799649638</v>
+        <v>28.61687799649641</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34875,7 +34875,7 @@
         <v>131.2029511204531</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.560263827496826</v>
+        <v>6.56026382749684</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>63.51231025789485</v>
+        <v>63.51231025789551</v>
       </c>
       <c r="K5" t="n">
-        <v>146.4395177398812</v>
+        <v>146.4395177398822</v>
       </c>
       <c r="L5" t="n">
-        <v>218.94567775147</v>
+        <v>218.9456777514713</v>
       </c>
       <c r="M5" t="n">
-        <v>275.6085835658238</v>
+        <v>275.6085835658251</v>
       </c>
       <c r="N5" t="n">
-        <v>284.7286310916933</v>
+        <v>284.7286310916948</v>
       </c>
       <c r="O5" t="n">
-        <v>255.3912115304697</v>
+        <v>255.3912115304711</v>
       </c>
       <c r="P5" t="n">
-        <v>183.1209945396242</v>
+        <v>183.1209945396254</v>
       </c>
       <c r="Q5" t="n">
-        <v>88.85690064168099</v>
+        <v>88.85690064168185</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>18.8195706675339</v>
+        <v>18.81957066753426</v>
       </c>
       <c r="K6" t="n">
-        <v>111.1099112068425</v>
+        <v>111.1099112068432</v>
       </c>
       <c r="L6" t="n">
-        <v>196.1914330435602</v>
+        <v>292.5716995165349</v>
       </c>
       <c r="M6" t="n">
-        <v>366.0100109014427</v>
+        <v>383.0198440937146</v>
       </c>
       <c r="N6" t="n">
-        <v>383.0198440937124</v>
+        <v>269.6297444284712</v>
       </c>
       <c r="O6" t="n">
-        <v>224.2143021313124</v>
+        <v>224.2143021313133</v>
       </c>
       <c r="P6" t="n">
-        <v>160.4233948017426</v>
+        <v>160.4233948017434</v>
       </c>
       <c r="Q6" t="n">
-        <v>56.81536027239144</v>
+        <v>56.81536027239196</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,25 +35094,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>127.8969784315178</v>
+        <v>127.8969784315182</v>
       </c>
       <c r="L7" t="n">
-        <v>219.7514066835972</v>
+        <v>219.7514066835977</v>
       </c>
       <c r="M7" t="n">
-        <v>242.1911106588954</v>
+        <v>242.1911106588959</v>
       </c>
       <c r="N7" t="n">
-        <v>241.9218589084013</v>
+        <v>241.9218589084019</v>
       </c>
       <c r="O7" t="n">
-        <v>207.275916612167</v>
+        <v>207.2759166121675</v>
       </c>
       <c r="P7" t="n">
-        <v>153.6020898051484</v>
+        <v>153.6020898051489</v>
       </c>
       <c r="Q7" t="n">
-        <v>22.06826641504411</v>
+        <v>22.06826641504441</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35249,16 +35249,16 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091739</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K9" t="n">
-        <v>207.7684899439599</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378501</v>
+        <v>466.4238188159144</v>
       </c>
       <c r="M9" t="n">
-        <v>640.5848321000389</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N9" t="n">
         <v>391.1970995928739</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>232.547809004032</v>
+        <v>232.5478090040313</v>
       </c>
       <c r="K11" t="n">
-        <v>399.7799124276256</v>
+        <v>399.7799124276244</v>
       </c>
       <c r="L11" t="n">
-        <v>533.2368392517105</v>
+        <v>533.2368392517092</v>
       </c>
       <c r="M11" t="n">
-        <v>625.3180581584705</v>
+        <v>625.3180581584689</v>
       </c>
       <c r="N11" t="n">
-        <v>640.0967705932485</v>
+        <v>640.0967705932469</v>
       </c>
       <c r="O11" t="n">
-        <v>590.9552686077546</v>
+        <v>590.9552686077532</v>
       </c>
       <c r="P11" t="n">
-        <v>469.5171537062448</v>
+        <v>469.5171537062434</v>
       </c>
       <c r="Q11" t="n">
-        <v>303.9284889151096</v>
+        <v>303.9284889151087</v>
       </c>
       <c r="R11" t="n">
-        <v>90.52095692156627</v>
+        <v>90.5209569215657</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>119.4959557116372</v>
       </c>
       <c r="K12" t="n">
-        <v>283.1818887458967</v>
+        <v>283.1818887458959</v>
       </c>
       <c r="L12" t="n">
-        <v>427.5634418457678</v>
+        <v>427.5634418457668</v>
       </c>
       <c r="M12" t="n">
-        <v>518.4987618625153</v>
+        <v>518.4987618625139</v>
       </c>
       <c r="N12" t="n">
-        <v>546.7760680313812</v>
+        <v>105.9950462899274</v>
       </c>
       <c r="O12" t="n">
-        <v>365.5053951794426</v>
+        <v>477.7490432987358</v>
       </c>
       <c r="P12" t="n">
-        <v>363.9073766062172</v>
+        <v>363.9073766062163</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>192.8390133211627</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>16.20240458936553</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>61.18259316701852</v>
+        <v>61.18259316701821</v>
       </c>
       <c r="K13" t="n">
-        <v>231.6901150360915</v>
+        <v>231.690115036091</v>
       </c>
       <c r="L13" t="n">
-        <v>352.570886811234</v>
+        <v>352.5708868112333</v>
       </c>
       <c r="M13" t="n">
-        <v>382.2306297882118</v>
+        <v>382.2306297882111</v>
       </c>
       <c r="N13" t="n">
-        <v>378.6315512765383</v>
+        <v>378.6315512765376</v>
       </c>
       <c r="O13" t="n">
-        <v>333.5494446190459</v>
+        <v>333.5494446190453</v>
       </c>
       <c r="P13" t="n">
-        <v>261.6509074410833</v>
+        <v>261.6509074410828</v>
       </c>
       <c r="Q13" t="n">
-        <v>96.87566713998372</v>
+        <v>96.87566713998338</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>282.3190661607201</v>
+        <v>282.3190661607202</v>
       </c>
       <c r="K14" t="n">
-        <v>474.3741250380623</v>
+        <v>474.3741250380626</v>
       </c>
       <c r="L14" t="n">
-        <v>625.7775560664388</v>
+        <v>625.7775560664393</v>
       </c>
       <c r="M14" t="n">
-        <v>728.2874363020579</v>
+        <v>728.2874363020583</v>
       </c>
       <c r="N14" t="n">
-        <v>744.7323009263696</v>
+        <v>744.73230092637</v>
       </c>
       <c r="O14" t="n">
-        <v>689.7596327870083</v>
+        <v>689.7596327870085</v>
       </c>
       <c r="P14" t="n">
-        <v>553.8443926134826</v>
+        <v>553.844392613483</v>
       </c>
       <c r="Q14" t="n">
-        <v>367.254733440411</v>
+        <v>367.2547334404112</v>
       </c>
       <c r="R14" t="n">
-        <v>127.357360784584</v>
+        <v>127.3573607845842</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.049527853053078</v>
+        <v>1.049527853053121</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L15" t="n">
-        <v>12.5890754270164</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M15" t="n">
-        <v>597.9983376284117</v>
+        <v>597.9983376284119</v>
       </c>
       <c r="N15" t="n">
-        <v>628.3797610094304</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>552.4004797981759</v>
+        <v>363.83287642946</v>
       </c>
       <c r="P15" t="n">
-        <v>423.821735783915</v>
+        <v>423.8217357839152</v>
       </c>
       <c r="Q15" t="n">
-        <v>232.8901757426736</v>
+        <v>232.8901757426738</v>
       </c>
       <c r="R15" t="n">
-        <v>35.68303457970737</v>
+        <v>35.68303457970742</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>79.77992211066046</v>
+        <v>79.77992211066052</v>
       </c>
       <c r="K16" t="n">
-        <v>262.2512393642056</v>
+        <v>262.2512393642057</v>
       </c>
       <c r="L16" t="n">
-        <v>391.6786041243779</v>
+        <v>391.678604124378</v>
       </c>
       <c r="M16" t="n">
-        <v>423.4642343883427</v>
+        <v>423.4642343883428</v>
       </c>
       <c r="N16" t="n">
-        <v>418.8847129209159</v>
+        <v>418.8847129209161</v>
       </c>
       <c r="O16" t="n">
-        <v>370.7297545606359</v>
+        <v>370.729754560636</v>
       </c>
       <c r="P16" t="n">
-        <v>293.4650856931358</v>
+        <v>293.4650856931359</v>
       </c>
       <c r="Q16" t="n">
-        <v>118.9021551044798</v>
+        <v>118.9021551044799</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,31 +35878,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902405</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>44.09163190712519</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>220.9409070342396</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K19" t="n">
         <v>264.332588409635</v>
@@ -36051,7 +36051,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O19" t="n">
         <v>373.2618997060455</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>592.1338044402481</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>220.9409070342396</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36443,22 +36443,22 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>101.8925903961643</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>485.6519634391653</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>311.9917356041949</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.7540807028592577</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R27" t="n">
         <v>37.00975247789214</v>
@@ -36914,16 +36914,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>101.8925903961643</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>189.5729943876629</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
         <v>427.9021712071396</v>
@@ -37148,19 +37148,19 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>254.8360547723481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>546.2057666753338</v>
       </c>
       <c r="P33" t="n">
         <v>427.9021712071396</v>
@@ -37239,7 +37239,7 @@
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060508</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37385,28 +37385,28 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>90.0196696720396</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>248.1585668488234</v>
       </c>
       <c r="Q36" t="n">
         <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37616,25 +37616,25 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>405.044904796216</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>318.5044627483008</v>
       </c>
       <c r="P39" t="n">
         <v>427.9021712071396</v>
@@ -37859,16 +37859,16 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>205.0040068187899</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>469.7150632237154</v>
       </c>
       <c r="O42" t="n">
         <v>557.48457599928</v>
@@ -37877,7 +37877,7 @@
         <v>427.9021712071396</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
         <v>37.00975247789214</v>
@@ -38093,7 +38093,7 @@
         <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
@@ -38102,22 +38102,22 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>586.9504424351509</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>347.2162484813122</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>235.6178387625076</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
